--- a/BalanceSheet/TXG_bal.xlsx
+++ b/BalanceSheet/TXG_bal.xlsx
@@ -220,19 +220,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-4753000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-3360000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-2401000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-4087000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-1964000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
@@ -613,19 +613,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-4463000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-497000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-2157000.0</v>
+        <v>10000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-653000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2215000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
